--- a/Adm/patent_course/student_list-2016spr.xlsx
+++ b/Adm/patent_course/student_list-2016spr.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$E$82</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="281">
   <si>
     <t>系所名稱</t>
   </si>
@@ -440,14 +445,566 @@
   </si>
   <si>
     <t>組別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李育綾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林怡君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林育如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李孟紘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王宥憲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0104111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0104121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0103175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0127109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0127113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜可柔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賴冠瑜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林儀禎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃以芹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌勝己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪培元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歐陽仲威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃威翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0303136</t>
+  </si>
+  <si>
+    <t>B0303130</t>
+  </si>
+  <si>
+    <t>B0303127</t>
+  </si>
+  <si>
+    <t>B0303129</t>
+  </si>
+  <si>
+    <t>銀苡茜</t>
+  </si>
+  <si>
+    <t>詹琇雅</t>
+  </si>
+  <si>
+    <t>陳韻涵</t>
+  </si>
+  <si>
+    <t>葉雯瑜</t>
+  </si>
+  <si>
+    <t>B0203162</t>
+  </si>
+  <si>
+    <t>潘俊傑</t>
+  </si>
+  <si>
+    <t>B0303101</t>
+  </si>
+  <si>
+    <t>吳正欽</t>
+  </si>
+  <si>
+    <t>B0303106 </t>
+  </si>
+  <si>
+    <t>蔡承霖</t>
+  </si>
+  <si>
+    <t>B0303148</t>
+  </si>
+  <si>
+    <t>林育丞</t>
+  </si>
+  <si>
+    <t>B0303118</t>
+  </si>
+  <si>
+    <t>鄭淇方</t>
+  </si>
+  <si>
+    <t>B0303112</t>
+  </si>
+  <si>
+    <t>楊傳仁</t>
+  </si>
+  <si>
+    <t>B0303134</t>
+  </si>
+  <si>
+    <t>龐宇浩</t>
+  </si>
+  <si>
+    <t>以下為加簽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林奕伶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何語倩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍾欣庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李亭葦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃宇薇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0303136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀苡茜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0303130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹琇雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0303127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳韻涵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0303129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葉雯瑜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0303139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錢薇安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭明彥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉昌翰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳冠億</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張峻瑋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0203162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘俊傑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0303101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳正欽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0303106 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡承霖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0303148</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林育丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0303118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄭淇方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0303112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楊傳仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0303134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龐宇浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0303159</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林采萱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉祈宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盧昱宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈家任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張雅惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許文瑄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章齊信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭宇暄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾國維</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許世賢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳志榮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳彥儒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳維翰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王奕翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0127107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王樂文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王孝然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙崇皓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳日宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡孟辰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉浩澤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0229048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳偉翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF373E4D"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陳冠彰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF373E4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張倚豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王品盛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳承憲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莊雲翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0329043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0329039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉芷菱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0329054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃若瑜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范綵均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴君霖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賴晨堯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許庭毓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -461,6 +1018,38 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF373E4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF373E4D"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF373E4D"/>
+      <name val="新細明體"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -483,8 +1072,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -545,7 +1139,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -577,10 +1171,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -612,7 +1205,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -788,19 +1380,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +1409,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -827,8 +1419,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -838,8 +1433,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -849,8 +1447,11 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -860,8 +1461,11 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -871,8 +1475,11 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -886,7 +1493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -897,7 +1504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -908,7 +1515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -919,7 +1526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -930,7 +1537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -940,8 +1547,11 @@
       <c r="C12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -951,8 +1561,11 @@
       <c r="C13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -962,8 +1575,11 @@
       <c r="C14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -973,8 +1589,11 @@
       <c r="C15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -984,8 +1603,11 @@
       <c r="C16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -995,8 +1617,11 @@
       <c r="C17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1006,8 +1631,12 @@
       <c r="C18" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1017,8 +1646,12 @@
       <c r="C19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1028,8 +1661,12 @@
       <c r="C20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1039,8 +1676,12 @@
       <c r="C21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1050,8 +1691,12 @@
       <c r="C22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1061,8 +1706,12 @@
       <c r="C23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1072,8 +1721,12 @@
       <c r="C24" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1083,8 +1736,12 @@
       <c r="C25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1094,8 +1751,12 @@
       <c r="C26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1105,8 +1766,12 @@
       <c r="C27" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1116,8 +1781,12 @@
       <c r="C28" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1127,8 +1796,12 @@
       <c r="C29" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1138,8 +1811,12 @@
       <c r="C30" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1149,8 +1826,12 @@
       <c r="C31" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>17</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1160,8 +1841,12 @@
       <c r="C32" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1171,8 +1856,12 @@
       <c r="C33" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>14</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -1182,8 +1871,12 @@
       <c r="C34" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -1193,8 +1886,12 @@
       <c r="C35" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>14</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1204,8 +1901,12 @@
       <c r="C36" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -1215,8 +1916,12 @@
       <c r="C37" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -1226,8 +1931,12 @@
       <c r="C38" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -1237,8 +1946,11 @@
       <c r="C39" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -1248,8 +1960,11 @@
       <c r="C40" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -1259,8 +1974,11 @@
       <c r="C41" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -1270,8 +1988,11 @@
       <c r="C42" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -1281,8 +2002,11 @@
       <c r="C43" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -1292,8 +2016,11 @@
       <c r="C44" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -1303,8 +2030,11 @@
       <c r="C45" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -1314,8 +2044,11 @@
       <c r="C46" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -1326,7 +2059,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -1336,8 +2069,11 @@
       <c r="C48" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -1347,8 +2083,11 @@
       <c r="C49" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -1358,8 +2097,11 @@
       <c r="C50" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1369,8 +2111,11 @@
       <c r="C51" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -1380,8 +2125,11 @@
       <c r="C52" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -1391,8 +2139,11 @@
       <c r="C53" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -1402,8 +2153,12 @@
       <c r="C54" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>12</v>
+      </c>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -1413,8 +2168,11 @@
       <c r="C55" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -1424,8 +2182,11 @@
       <c r="C56" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -1435,8 +2196,11 @@
       <c r="C57" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -1446,8 +2210,11 @@
       <c r="C58" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -1457,8 +2224,11 @@
       <c r="C59" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -1468,8 +2238,11 @@
       <c r="C60" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -1479,8 +2252,11 @@
       <c r="C61" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -1490,8 +2266,11 @@
       <c r="C62" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -1501,8 +2280,11 @@
       <c r="C63" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -1512,8 +2294,11 @@
       <c r="C64" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -1524,7 +2309,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -1533,6 +2318,171 @@
       </c>
       <c r="C66" t="s">
         <v>140</v>
+      </c>
+      <c r="E66">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="B68" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" t="s">
+        <v>173</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="B69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" t="s">
+        <v>174</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="B70" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" t="s">
+        <v>175</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="B71" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="B73" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" t="s">
+        <v>178</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="B74" t="s">
+        <v>179</v>
+      </c>
+      <c r="C74" t="s">
+        <v>180</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="B75" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" t="s">
+        <v>182</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="B76" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="B78" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" t="s">
+        <v>186</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="B79" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="B80" t="s">
+        <v>189</v>
+      </c>
+      <c r="C80" t="s">
+        <v>190</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" t="s">
+        <v>157</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" t="s">
+        <v>273</v>
+      </c>
+      <c r="C84" t="s">
+        <v>274</v>
+      </c>
+      <c r="E84">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" t="s">
+        <v>275</v>
+      </c>
+      <c r="C85" t="s">
+        <v>276</v>
+      </c>
+      <c r="E85">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1540,4 +2490,738 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2"/>
+      <c r="B16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2"/>
+      <c r="B24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2"/>
+      <c r="B25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2"/>
+      <c r="B26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2"/>
+      <c r="B27" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2"/>
+      <c r="B28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2"/>
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2"/>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2"/>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2"/>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2"/>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" t="s">
+        <v>255</v>
+      </c>
+      <c r="C41" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" t="s">
+        <v>264</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" t="s">
+        <v>265</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" t="s">
+        <v>273</v>
+      </c>
+      <c r="C38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" t="s">
+        <v>275</v>
+      </c>
+      <c r="C39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>